--- a/AVUN.xlsx
+++ b/AVUN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youssefmekouar/Desktop/Doctorat Paris8/Cours/Modélisation données et processus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rimkaidi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18078093-C2A2-ED43-BFE4-3AFF164F2AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F091D860-9C6C-E245-9443-B306A8EBB453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{810FAF2F-2AC8-A043-8C36-94BE8F4FB263}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{810FAF2F-2AC8-A043-8C36-94BE8F4FB263}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nom</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Top !!</t>
+  </si>
+  <si>
+    <t>Kaidi</t>
+  </si>
+  <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>kaidirim12498@gmail.com</t>
+  </si>
+  <si>
+    <t>super !</t>
   </si>
 </sst>
 </file>
@@ -439,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F607FE0F-F076-A34A-8EC3-5E95C721BA92}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -487,13 +499,31 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>22010892</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{31DE5112-CD7F-0C4C-96DE-D6444BF1935A}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{314FC6A6-B3B3-C540-BE3E-67161F547953}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>